--- a/test.xlsx
+++ b/test.xlsx
@@ -40,6 +40,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,12 +73,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -381,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,10 +483,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>43038</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>43132</v>
       </c>
       <c r="D22" s="1">
@@ -501,34 +507,30 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>43038</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>43158</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:D52" si="0">DATEDIF($A23,$B23, "y")</f>
+        <f t="shared" ref="D23:D64" si="0">DATEDIF($A23,$B23, "y")</f>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:E52" si="1">DATEDIF($A23,$B23, "ym")</f>
+        <f t="shared" ref="E23:E64" si="1">DATEDIF($A23,$B23, "ym")</f>
         <v>3</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F52" si="2">DATEDIF($A23,$B23, "md")</f>
+        <f t="shared" ref="F23:F64" si="2">DATEDIF($A23,$B23, "md")</f>
         <v>28</v>
       </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" ref="H23:H52" si="3">"Лет: "&amp;DATEDIF($A23,$B23, "y")&amp;" Месяцев: "&amp;DATEDIF($A23,$B23, "ym")&amp;" Дней: "&amp;DATEDIF($A23,$B23, "md")</f>
-        <v>Лет: 0 Месяцев: 3 Дней: 28</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>43038</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>43159</v>
       </c>
       <c r="D24" s="1">
@@ -543,16 +545,12 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 0 Месяцев: 3 Дней: 29</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>43038</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>43160</v>
       </c>
       <c r="D25" s="1">
@@ -567,16 +565,12 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 0 Месяцев: 4 Дней: -1</v>
-      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>43038</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>43188</v>
       </c>
       <c r="D26" s="1">
@@ -591,16 +585,12 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 0 Месяцев: 4 Дней: 27</v>
-      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>43038</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>43189</v>
       </c>
       <c r="D27" s="1">
@@ -615,16 +605,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 0 Месяцев: 5 Дней: 0</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>43038</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>43190</v>
       </c>
       <c r="D28" s="1">
@@ -639,16 +625,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 0 Месяцев: 5 Дней: 1</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="A29" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B29" s="3">
         <v>34334</v>
       </c>
       <c r="D29" s="1">
@@ -663,16 +645,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 0 Месяцев: 0 Дней: 0</v>
-      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B30" s="3">
         <v>34335</v>
       </c>
       <c r="D30" s="1">
@@ -687,16 +665,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 0 Месяцев: 0 Дней: 1</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B31" s="3">
         <v>43099</v>
       </c>
       <c r="D31" s="1">
@@ -711,17 +685,13 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 23 Месяцев: 11 Дней: 29</v>
-      </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B32" s="3">
         <v>43100</v>
       </c>
       <c r="D32" s="1">
@@ -736,16 +706,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 0 Дней: 0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B33" s="2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B33" s="3">
         <v>43101</v>
       </c>
       <c r="D33" s="1">
@@ -760,16 +726,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 0 Дней: 1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B34" s="2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B34" s="3">
         <v>43130</v>
       </c>
       <c r="D34" s="1">
@@ -784,16 +746,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 0 Дней: 30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B35" s="2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B35" s="3">
         <v>43131</v>
       </c>
       <c r="D35" s="1">
@@ -808,16 +766,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 1 Дней: 0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B36" s="2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B36" s="3">
         <v>43132</v>
       </c>
       <c r="D36" s="1">
@@ -832,16 +786,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 1 Дней: 1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B37" s="2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B37" s="3">
         <v>43158</v>
       </c>
       <c r="D37" s="1">
@@ -856,16 +806,12 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 1 Дней: 27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B38" s="2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B38" s="3">
         <v>43159</v>
       </c>
       <c r="D38" s="1">
@@ -880,16 +826,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 1 Дней: 28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B39" s="2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B39" s="3">
         <v>43160</v>
       </c>
       <c r="D39" s="1">
@@ -904,16 +846,12 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="H39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 2 Дней: -2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B40" s="2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B40" s="3">
         <v>43189</v>
       </c>
       <c r="D40" s="1">
@@ -928,16 +866,12 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 2 Дней: 27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B41" s="2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B41" s="3">
         <v>43190</v>
       </c>
       <c r="D41" s="1">
@@ -952,273 +886,465 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 3 Дней: 0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B42" s="2">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>43038</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43402</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>43038</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43403</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43038</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43405</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B45" s="3">
         <v>43191</v>
       </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F45" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 3 Дней: 1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B43" s="2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B46" s="3">
         <v>43220</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F46" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 3 Дней: 30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B44" s="2">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B47" s="3">
         <v>43221</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 4 Дней: 0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B48" s="3">
         <v>43250</v>
       </c>
-      <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E48" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F48" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 4 Дней: 29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B46" s="2">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B49" s="3">
         <v>43251</v>
       </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E49" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 5 Дней: 0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B50" s="3">
         <v>43252</v>
       </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E50" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F50" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 5 Дней: 1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B48" s="2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B51" s="3">
         <v>43281</v>
       </c>
-      <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F51" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 5 Дней: 30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B49" s="2">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B52" s="3">
         <v>43282</v>
       </c>
-      <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E52" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 6 Дней: 0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B53" s="3">
         <v>43311</v>
       </c>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E53" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F53" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 6 Дней: 29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B51" s="2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B54" s="3">
         <v>43312</v>
       </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E54" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F51" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 7 Дней: 0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>34334</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>34334</v>
+      </c>
+      <c r="B55" s="3">
         <v>43313</v>
       </c>
-      <c r="D52" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E55" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F55" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Лет: 24 Месяцев: 7 Дней: 1</v>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>34026</v>
+      </c>
+      <c r="B56" s="3">
+        <v>42429</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>34026</v>
+      </c>
+      <c r="B57" s="3">
+        <v>42425</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>35124</v>
+      </c>
+      <c r="B58" s="3">
+        <v>42428</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>35124</v>
+      </c>
+      <c r="B59" s="3">
+        <v>42429</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>35124</v>
+      </c>
+      <c r="B60" s="3">
+        <v>42430</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>34026</v>
+      </c>
+      <c r="B61" s="3">
+        <v>42794</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>34026</v>
+      </c>
+      <c r="B62" s="3">
+        <v>42791</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>35124</v>
+      </c>
+      <c r="B63" s="3">
+        <v>42794</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>35124</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42795</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">

--- a/test.xlsx
+++ b/test.xlsx
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,10 +628,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>34334</v>
+        <v>43038</v>
       </c>
       <c r="B29" s="3">
-        <v>34334</v>
+        <v>43402</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -639,23 +639,23 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>34334</v>
+        <v>43038</v>
       </c>
       <c r="B30" s="3">
-        <v>34335</v>
+        <v>43403</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
@@ -663,27 +663,27 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>34334</v>
+        <v>43038</v>
       </c>
       <c r="B31" s="3">
-        <v>43099</v>
+        <v>43405</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J31" s="2"/>
     </row>
@@ -692,11 +692,11 @@
         <v>34334</v>
       </c>
       <c r="B32" s="3">
-        <v>43100</v>
+        <v>34334</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
@@ -712,11 +712,11 @@
         <v>34334</v>
       </c>
       <c r="B33" s="3">
-        <v>43101</v>
+        <v>34335</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
@@ -732,19 +732,19 @@
         <v>34334</v>
       </c>
       <c r="B34" s="3">
-        <v>43130</v>
+        <v>43099</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>34334</v>
       </c>
       <c r="B35" s="3">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -760,7 +760,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="2"/>
@@ -772,7 +772,7 @@
         <v>34334</v>
       </c>
       <c r="B36" s="3">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -780,7 +780,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="2"/>
@@ -792,7 +792,7 @@
         <v>34334</v>
       </c>
       <c r="B37" s="3">
-        <v>43158</v>
+        <v>43130</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -800,11 +800,11 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>34334</v>
       </c>
       <c r="B38" s="3">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>34334</v>
       </c>
       <c r="B39" s="3">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -840,11 +840,11 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>34334</v>
       </c>
       <c r="B40" s="3">
-        <v>43189</v>
+        <v>43158</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="2"/>
@@ -872,7 +872,7 @@
         <v>34334</v>
       </c>
       <c r="B41" s="3">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
@@ -880,71 +880,71 @@
       </c>
       <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>43038</v>
+        <v>34334</v>
       </c>
       <c r="B42" s="3">
-        <v>43402</v>
+        <v>43160</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>43038</v>
+        <v>34334</v>
       </c>
       <c r="B43" s="3">
-        <v>43403</v>
+        <v>43189</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>43038</v>
+        <v>34334</v>
       </c>
       <c r="B44" s="3">
-        <v>43405</v>
+        <v>43190</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1346,18 +1346,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
